--- a/biology/Zoologie/Diguetia_dialectica/Diguetia_dialectica.xlsx
+++ b/biology/Zoologie/Diguetia_dialectica/Diguetia_dialectica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diguetia dialectica est une espèce d'araignées aranéomorphes de la famille des Diguetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diguetia dialectica est une espèce d'araignées aranéomorphes de la famille des Diguetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre en Basse-Californie du Sud et en Basse-Californie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre en Basse-Californie du Sud et en Basse-Californie.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5 mm[3].
-Le mâle décrit par Gertsch en 1958 mesure 5,3 mm et la femelle 5,7 mm[4].
-Les mâles mesurent de 4,4 à 6,0 mm et les femelles de 6,5 à 9,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5 mm.
+Le mâle décrit par Gertsch en 1958 mesure 5,3 mm et la femelle 5,7 mm.
+Les mâles mesurent de 4,4 à 6,0 mm et les femelles de 6,5 à 9,3 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Chamberlin en 1924. Elle est considérée comme une sous-espèce de Diguetia canities par Gertsch en 1958[4] puis élevée au rang d'espèce par Jiménez, Cardiel et Chamé-Vázquez en 2022[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Chamberlin en 1924. Elle est considérée comme une sous-espèce de Diguetia canities par Gertsch en 1958 puis élevée au rang d'espèce par Jiménez, Cardiel et Chamé-Vázquez en 2022.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin, 1924 : « The spider fauna of the shores and islands of the Gulf of California. » Proceedings of the California Academy of Sciences, vol. 12, p. 561-694 (texte intégral).</t>
         </is>
